--- a/doc/04_画面遷移図_B4_第1版.xlsx
+++ b/doc/04_画面遷移図_B4_第1版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93845863-83AF-4C79-8465-6AB740867E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CFC50-A645-4C3F-8F83-428CE806E684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -491,59 +502,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1471F47C-CCBF-4100-B1CD-82D1D2D477E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5118100" y="1962150"/>
-          <a:ext cx="6350" cy="603250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1560,16 +1518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54781</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>458147</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1584,8 +1542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6946900" y="2127250"/>
-          <a:ext cx="1625600" cy="622300"/>
+          <a:off x="11626945" y="5721540"/>
+          <a:ext cx="1616501" cy="606377"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1629,16 +1587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546195</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12795</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1653,8 +1611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6076950" y="2438400"/>
-          <a:ext cx="685800" cy="311150"/>
+          <a:off x="10905225" y="5986818"/>
+          <a:ext cx="679734" cy="303189"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2935,6 +2893,477 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303284</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5019276-2C44-43E2-AB19-FA1821FC10E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5203209" y="1999776"/>
+          <a:ext cx="9478" cy="502315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483359</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>303284</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A7DE7B-8273-4914-BFCB-3742D9997AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10235822" y="3753134"/>
+          <a:ext cx="1033059" cy="9479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435970</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578135</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B395468-F81C-44F5-8516-C571B5486827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5942463" y="2805373"/>
+          <a:ext cx="6207836" cy="748731"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331717</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD775B0F-2A2B-4229-90C4-9E158C2360A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11297314" y="3582537"/>
+          <a:ext cx="1556035" cy="701628"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>育成ゲーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578135</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108236</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A13E1B-C108-4B97-9AD2-A217344DCFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7297762" y="2018731"/>
+          <a:ext cx="1349802" cy="786547"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>友達検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171355</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>308023</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCEECDA-D692-4F88-A2E0-C6AA148A9921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9923818" y="2000534"/>
+          <a:ext cx="1349802" cy="786547"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>454925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578135</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72409</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7500460D-45D0-4882-9B94-7C1F66E2D46F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5961418" y="2412005"/>
+          <a:ext cx="1336344" cy="181449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170598</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56865</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26740108-6895-4CBC-B791-9E98FCDC28D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8709926" y="2422856"/>
+          <a:ext cx="1099402" cy="3413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3610,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
